--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出一厂——仓储——入职表 .xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出一厂——仓储——入职表 .xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>一工厂XXXX年XX月份YY车间入职补助表（月）</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>工种</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>核对</t>
+  </si>
+  <si>
+    <t>是否补差额</t>
   </si>
 </sst>
 </file>
@@ -68,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,11 +88,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -95,11 +99,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,47 +106,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,42 +131,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,11 +152,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +271,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,43 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,73 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +501,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -516,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,9 +574,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,208 +597,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,15 +1121,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="13" max="13" width="13.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="11.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,55 +1144,63 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
